--- a/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>32,87%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,62; 44,23</t>
+          <t>26,83; 38,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,75; 46,78</t>
+          <t>27,73; 39,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,2; 43,21</t>
+          <t>29,05; 37,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>39,44%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,83; 38,28</t>
+          <t>33,62; 44,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,73; 39,01</t>
+          <t>35,75; 46,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,05; 37,17</t>
+          <t>36,2; 43,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>37,13%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 42,0</t>
+          <t>30,61; 53,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 40,49</t>
+          <t>25,19; 46,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,5; 38,3</t>
+          <t>30,1; 44,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>29,97%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,83; 38,28</t>
+          <t>25,53; 36,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,73; 39,01</t>
+          <t>23,61; 34,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,05; 37,17</t>
+          <t>25,93; 34,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>34,52%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,62; 44,23</t>
+          <t>26,61; 38,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,75; 46,78</t>
+          <t>30,67; 43,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,2; 43,21</t>
+          <t>30,47; 39,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>42,06%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,93; 39,89</t>
+          <t>35,24; 47,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,96; 41,12</t>
+          <t>37,74; 50,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,21; 39,52</t>
+          <t>37,39; 46,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37,25%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 39,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33,97; 41,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34,19; 39,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,61; 53,07</t>
+          <t>30,22; 52,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 46,19</t>
+          <t>24,29; 44,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,1; 44,37</t>
+          <t>29,89; 44,99</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,53; 36,83</t>
+          <t>25,13; 36,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,61; 34,11</t>
+          <t>23,26; 34,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,93; 34,3</t>
+          <t>26,02; 34,03</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,61; 38,95</t>
+          <t>26,33; 38,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,67; 43,4</t>
+          <t>30,82; 44,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,47; 39,17</t>
+          <t>30,32; 39,08</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 47,9</t>
+          <t>34,77; 47,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,74; 50,91</t>
+          <t>37,22; 50,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,39</t>
+          <t>37,37; 45,89</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,43; 39,63</t>
+          <t>32,54; 39,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,97; 41,1</t>
+          <t>33,76; 40,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,19; 39,25</t>
+          <t>34,18; 39,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>38,43%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,22; 52,58</t>
+          <t>26,15; 47,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 44,65</t>
+          <t>30,74; 52,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,89; 44,99</t>
+          <t>30,76; 45,91</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>30,68%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,13; 36,88</t>
+          <t>23,62; 35,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,26; 34,74</t>
+          <t>26,21; 38,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,02; 34,03</t>
+          <t>26,55; 34,94</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>35,68%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 38,58</t>
+          <t>32,26; 46,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 44,25</t>
+          <t>27,2; 39,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 39,08</t>
+          <t>31,06; 40,25</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>46,17%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 47,55</t>
+          <t>39,93; 65,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,22; 50,13</t>
+          <t>37,93; 51,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,37; 45,89</t>
+          <t>40,32; 53,81</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>38,99%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,54; 39,57</t>
+          <t>36,01; 48,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,76; 40,7</t>
+          <t>34,4; 42,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,18; 39,49</t>
+          <t>36,1; 43,68</t>
         </is>
       </c>
     </row>
